--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3654855.864388508</v>
+        <v>3652603.7846773</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>139.6581220938416</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>113.688337382602</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.17933574607731</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>42.67804628306436</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>186.159067000567</v>
+        <v>122.288263591708</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>258.8835443224782</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.3577258972783</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>142.3478174606649</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>44.37321050886694</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.15794421524323</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.06561173382013</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722601</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722578</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695604</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206813</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541108</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176105</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>958.1473305693546</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>958.1473305693546</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>547.1614257797471</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,10 +4328,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4370,10 +4370,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1884.185410428832</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1884.185410428832</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1662.418794998358</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1373.315928124002</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1118.631439918115</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>829.2142698811541</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>601.2247189831368</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396066</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.60683175406</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,25 +4565,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124868</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124868</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1354.198945796882</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1099.514457590995</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>810.0972875540343</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>582.107736656017</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124868</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>950.1045973369978</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>564.3163447387535</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>153.330439949146</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>285.7963790512222</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>118.0935424259411</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>118.0935424259411</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551871</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611459</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004709</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300665</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192581</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.76928903321</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.9555321712448</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.748111314775</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.9555321712448</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792906</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433897</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673184</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,31 +6479,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.043492616111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6716,13 +6716,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7412,16 +7412,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779224</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492635</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440182</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685514</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685517</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685524</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685514</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685515</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685512</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.75207685502</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685501</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750092.7917661231</v>
+        <v>-750092.7917661235</v>
       </c>
       <c r="C6" t="n">
-        <v>578651.9539614692</v>
+        <v>578651.9539614691</v>
       </c>
       <c r="D6" t="n">
-        <v>578651.9539614693</v>
+        <v>578651.9539614691</v>
       </c>
       <c r="E6" t="n">
-        <v>326037.5259973885</v>
+        <v>326002.7880719532</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793082</v>
       </c>
       <c r="G6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793084</v>
       </c>
       <c r="H6" t="n">
-        <v>651449.9878047437</v>
+        <v>651415.2498793076</v>
       </c>
       <c r="I6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793076</v>
       </c>
       <c r="J6" t="n">
-        <v>433918.7854074661</v>
+        <v>433884.0474820305</v>
       </c>
       <c r="K6" t="n">
-        <v>651449.9878047435</v>
+        <v>651415.2498793079</v>
       </c>
       <c r="L6" t="n">
-        <v>651449.9878047442</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="M6" t="n">
-        <v>566394.959869232</v>
+        <v>566360.2219437965</v>
       </c>
       <c r="N6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.249879308</v>
       </c>
       <c r="O6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.2498793079</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.249879308</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26750,10 +26750,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>271.2636035596119</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>272.5496012734516</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295091</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.25410638698297</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>195.7713030716948</v>
+        <v>259.6421064805537</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.32829388313468</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548165</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>222.9250743103427</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>366.5485151445865</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>45.28680867601796</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,16 +28093,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.724792879514902e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,16 +28567,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.335599460935853e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28804,16 +28804,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.658403366357559e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.638951315734342e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908115</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153347</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817606</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.9649970098548</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445158004</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967496</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319844</v>
+        <v>332.169238832108</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33503,31 +33503,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>587.1221002143873</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34451,19 +34451,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463671</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779320013</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.45432403678</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552455</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324671</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.8381222824194</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875399</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>444.5258557699429</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
